--- a/Project2/Workbook1.xlsx
+++ b/Project2/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="part a) &amp; b)" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>Lambda = 0.974 fm^(-1)</t>
   </si>
   <si>
-    <t>~ 1.5 m_pi</t>
+    <t>~ 1.4 m_pi</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2001"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="J401" sqref="H2:J401"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19988,8 +19988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="84" workbookViewId="0">
-      <selection activeCell="O201" activeCellId="1" sqref="A2:A201 K2:O201"/>
+    <sheetView zoomScaleNormal="84" zoomScalePageLayoutView="84" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29802,8 +29802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2001"/>
   <sheetViews>
-    <sheetView topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="F821" sqref="F821"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
